--- a/result.xlsx
+++ b/result.xlsx
@@ -375,10 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -396,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>张卓然_3200607039_电子信息1班_AI在语音行业调查报告(1).docx</v>
+        <v>3200607035 张举 人工智能加持下的智能安防应用研究报告.docx</v>
       </c>
       <c r="C2">
-        <v>7.95</v>
+        <v>37.74</v>
       </c>
     </row>
     <row r="3">
@@ -407,15 +412,543 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
+        <v>人工智能论文.docx</v>
+      </c>
+      <c r="C3">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy (41).docx</v>
+      </c>
+      <c r="C4">
+        <v>36.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (10).docx</v>
+      </c>
+      <c r="C5">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (11).docx</v>
+      </c>
+      <c r="C6">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (12).docx</v>
+      </c>
+      <c r="C7">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (13).docx</v>
+      </c>
+      <c r="C8">
+        <v>35.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (14).docx</v>
+      </c>
+      <c r="C9">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (15).docx</v>
+      </c>
+      <c r="C10">
+        <v>35.26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (16).docx</v>
+      </c>
+      <c r="C11">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (17).docx</v>
+      </c>
+      <c r="C12">
+        <v>36.41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (18).docx</v>
+      </c>
+      <c r="C13">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (19).docx</v>
+      </c>
+      <c r="C14">
+        <v>35.07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (2).docx</v>
+      </c>
+      <c r="C15">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (20).docx</v>
+      </c>
+      <c r="C16">
+        <v>36.41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (21).docx</v>
+      </c>
+      <c r="C17">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (22).docx</v>
+      </c>
+      <c r="C18">
+        <v>35.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (23).docx</v>
+      </c>
+      <c r="C19">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (24).docx</v>
+      </c>
+      <c r="C20">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (25).docx</v>
+      </c>
+      <c r="C21">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (26).docx</v>
+      </c>
+      <c r="C22">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (27).docx</v>
+      </c>
+      <c r="C23">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (28).docx</v>
+      </c>
+      <c r="C24">
+        <v>35.22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (29).docx</v>
+      </c>
+      <c r="C25">
+        <v>36.41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (3).docx</v>
+      </c>
+      <c r="C26">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (30).docx</v>
+      </c>
+      <c r="C27">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (31).docx</v>
+      </c>
+      <c r="C28">
+        <v>33.39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (32).docx</v>
+      </c>
+      <c r="C29">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (33).docx</v>
+      </c>
+      <c r="C30">
+        <v>36.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (34).docx</v>
+      </c>
+      <c r="C31">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (35).docx</v>
+      </c>
+      <c r="C32">
+        <v>35.69</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (36).docx</v>
+      </c>
+      <c r="C33">
+        <v>36.65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (37).docx</v>
+      </c>
+      <c r="C34">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (38).docx</v>
+      </c>
+      <c r="C35">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (39).docx</v>
+      </c>
+      <c r="C36">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (4).docx</v>
+      </c>
+      <c r="C37">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (5).docx</v>
+      </c>
+      <c r="C38">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (6).docx</v>
+      </c>
+      <c r="C39">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (7).docx</v>
+      </c>
+      <c r="C40">
+        <v>34.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (8).docx</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (9).docx</v>
+      </c>
+      <c r="C42">
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy.docx</v>
+      </c>
+      <c r="C43">
+        <v>34.83</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy.docx</v>
+      </c>
+      <c r="C44">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告.docx</v>
+      </c>
+      <c r="C45">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>张卓然_3200607039_电子信息1班_AI在语音行业调查报告(1).docx</v>
+      </c>
+      <c r="C46">
+        <v>63.62</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
         <v>张竞澜_3200605015_计算机理学1班.docx</v>
       </c>
-      <c r="C3">
-        <v>2.53</v>
+      <c r="C47">
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>文成江_3200607036_电信1班_AI在目标检测行业调查报告(1).doc</v>
+      </c>
+      <c r="C48">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>沈琪瀚_3200607038_电子信息1班_AI在语音识别行业调查报告(1).docx</v>
+      </c>
+      <c r="C49">
+        <v>68.44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>王奇_3200607051_2020级一班_人工智能在自动驾驶行业中的应用.doc</v>
+      </c>
+      <c r="C50">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>王紫轩_3200604003.doc</v>
+      </c>
+      <c r="C51">
+        <v>60.25</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -375,580 +375,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>序号</v>
+        <v>文件名</v>
       </c>
       <c r="B1" t="str">
-        <v>文件名</v>
-      </c>
-      <c r="C1" t="str">
         <v>重复率</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>3200607035 张举 人工智能加持下的智能安防应用研究报告.docx</v>
-      </c>
-      <c r="C2">
-        <v>37.74</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (100) - Copy - Copy</v>
+      </c>
+      <c r="B2">
+        <v>36.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>人工智能论文.docx</v>
-      </c>
-      <c r="C3">
-        <v>25.78</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (101) - Copy - Copy</v>
+      </c>
+      <c r="B3">
+        <v>36.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy (41).docx</v>
-      </c>
-      <c r="C4">
-        <v>36.41</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (102) - Copy - Copy</v>
+      </c>
+      <c r="B4">
+        <v>35.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (10).docx</v>
-      </c>
-      <c r="C5">
-        <v>32.47</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (103) - Copy - Copy</v>
+      </c>
+      <c r="B5">
+        <v>36.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (11).docx</v>
-      </c>
-      <c r="C6">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (104) - Copy - Copy</v>
+      </c>
+      <c r="B6">
+        <v>36.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (12).docx</v>
-      </c>
-      <c r="C7">
-        <v>35.73</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (105) - Copy - Copy</v>
+      </c>
+      <c r="B7">
+        <v>36.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (13).docx</v>
-      </c>
-      <c r="C8">
-        <v>35.02</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (106) - Copy - Copy</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (14).docx</v>
-      </c>
-      <c r="C9">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (107) - Copy - Copy</v>
+      </c>
+      <c r="B9">
+        <v>36.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (15).docx</v>
-      </c>
-      <c r="C10">
-        <v>35.26</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (35) - Copy</v>
+      </c>
+      <c r="B10">
+        <v>36.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (16).docx</v>
-      </c>
-      <c r="C11">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (35)</v>
+      </c>
+      <c r="B11">
+        <v>36.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (17).docx</v>
-      </c>
-      <c r="C12">
-        <v>36.41</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (36) - Copy - Copy</v>
+      </c>
+      <c r="B12">
+        <v>36.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (18).docx</v>
-      </c>
-      <c r="C13">
-        <v>33.3</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (36) - Copy</v>
+      </c>
+      <c r="B13">
+        <v>36.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (19).docx</v>
-      </c>
-      <c r="C14">
-        <v>35.07</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (37) - Copy - Copy</v>
+      </c>
+      <c r="B14">
+        <v>36.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (2).docx</v>
-      </c>
-      <c r="C15">
-        <v>28.08</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (38) - Copy - Copy</v>
+      </c>
+      <c r="B15">
+        <v>36.34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (20).docx</v>
-      </c>
-      <c r="C16">
-        <v>36.41</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (39) - Copy - Copy</v>
+      </c>
+      <c r="B16">
+        <v>22.92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (21).docx</v>
-      </c>
-      <c r="C17">
-        <v>36.43</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (40) - Copy - Copy</v>
+      </c>
+      <c r="B17">
+        <v>35.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (22).docx</v>
-      </c>
-      <c r="C18">
-        <v>35.09</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (41) - Copy - Copy</v>
+      </c>
+      <c r="B18">
+        <v>36.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (23).docx</v>
-      </c>
-      <c r="C19">
-        <v>34.6</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (42) - Copy - Copy</v>
+      </c>
+      <c r="B19">
+        <v>36.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (24).docx</v>
-      </c>
-      <c r="C20">
-        <v>19.11</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (43) - Copy - Copy</v>
+      </c>
+      <c r="B20">
+        <v>36.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (25).docx</v>
-      </c>
-      <c r="C21">
-        <v>34.01</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (44) - Copy - Copy</v>
+      </c>
+      <c r="B21">
+        <v>36.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (26).docx</v>
-      </c>
-      <c r="C22">
-        <v>36.39</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (45) - Copy - Copy</v>
+      </c>
+      <c r="B22">
+        <v>33.61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (27).docx</v>
-      </c>
-      <c r="C23">
-        <v>36.72</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (46) - Copy - Copy</v>
+      </c>
+      <c r="B23">
+        <v>36.34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (28).docx</v>
-      </c>
-      <c r="C24">
-        <v>35.22</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (47) - Copy - Copy</v>
+      </c>
+      <c r="B24">
+        <v>33.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (29).docx</v>
-      </c>
-      <c r="C25">
-        <v>36.41</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (48) - Copy - Copy</v>
+      </c>
+      <c r="B25">
+        <v>36.37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (3).docx</v>
-      </c>
-      <c r="C26">
-        <v>16.16</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (49) - Copy - Copy</v>
+      </c>
+      <c r="B26">
+        <v>36.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (30).docx</v>
-      </c>
-      <c r="C27">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (50) - Copy - Copy</v>
+      </c>
+      <c r="B27">
+        <v>36.57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (31).docx</v>
-      </c>
-      <c r="C28">
-        <v>33.39</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (51) - Copy - Copy</v>
+      </c>
+      <c r="B28">
+        <v>33.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (32).docx</v>
-      </c>
-      <c r="C29">
-        <v>36.04</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (52) - Copy - Copy</v>
+      </c>
+      <c r="B29">
+        <v>35.48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (33).docx</v>
-      </c>
-      <c r="C30">
-        <v>36.01</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (53) - Copy - Copy</v>
+      </c>
+      <c r="B30">
+        <v>36.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (34).docx</v>
-      </c>
-      <c r="C31">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (54) - Copy - Copy</v>
+      </c>
+      <c r="B31">
+        <v>36.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>31</v>
-      </c>
-      <c r="B32" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (35).docx</v>
-      </c>
-      <c r="C32">
-        <v>35.69</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (55) - Copy - Copy</v>
+      </c>
+      <c r="B32">
+        <v>36.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (36).docx</v>
-      </c>
-      <c r="C33">
-        <v>36.65</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (56) - Copy - Copy</v>
+      </c>
+      <c r="B33">
+        <v>35.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (37).docx</v>
-      </c>
-      <c r="C34">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (57) - Copy - Copy</v>
+      </c>
+      <c r="B34">
+        <v>36.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (38).docx</v>
-      </c>
-      <c r="C35">
-        <v>36.37</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (58) - Copy - Copy</v>
+      </c>
+      <c r="B35">
+        <v>36.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (39).docx</v>
-      </c>
-      <c r="C36">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (59) - Copy - Copy</v>
+      </c>
+      <c r="B36">
+        <v>36.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (4).docx</v>
-      </c>
-      <c r="C37">
-        <v>36.39</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (60) - Copy - Copy</v>
+      </c>
+      <c r="B37">
+        <v>29.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (5).docx</v>
-      </c>
-      <c r="C38">
-        <v>36.35</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (61) - Copy - Copy</v>
+      </c>
+      <c r="B38">
+        <v>36.45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (6).docx</v>
-      </c>
-      <c r="C39">
-        <v>36.37</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (62) - Copy - Copy</v>
+      </c>
+      <c r="B39">
+        <v>35.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (7).docx</v>
-      </c>
-      <c r="C40">
-        <v>34.41</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (63) - Copy - Copy</v>
+      </c>
+      <c r="B40">
+        <v>36.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (8).docx</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (64) - Copy - Copy</v>
+      </c>
+      <c r="B41">
+        <v>36.26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (9).docx</v>
-      </c>
-      <c r="C42">
-        <v>36.19</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (65) - Copy - Copy</v>
+      </c>
+      <c r="B42">
+        <v>36.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>42</v>
-      </c>
-      <c r="B43" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy.docx</v>
-      </c>
-      <c r="C43">
-        <v>34.83</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (66) - Copy - Copy</v>
+      </c>
+      <c r="B43">
+        <v>36.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy.docx</v>
-      </c>
-      <c r="C44">
-        <v>31.43</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (67) - Copy - Copy</v>
+      </c>
+      <c r="B44">
+        <v>36.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告.docx</v>
-      </c>
-      <c r="C45">
-        <v>36.3</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (68) - Copy - Copy</v>
+      </c>
+      <c r="B45">
+        <v>34.61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <v>张卓然_3200607039_电子信息1班_AI在语音行业调查报告(1).docx</v>
-      </c>
-      <c r="C46">
-        <v>63.62</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (69) - Copy - Copy</v>
+      </c>
+      <c r="B46">
+        <v>36.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <v>张竞澜_3200605015_计算机理学1班.docx</v>
-      </c>
-      <c r="C47">
-        <v>38.22</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (70) - Copy - Copy</v>
+      </c>
+      <c r="B47">
+        <v>34.41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <v>文成江_3200607036_电信1班_AI在目标检测行业调查报告(1).doc</v>
-      </c>
-      <c r="C48">
-        <v>39.53</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (71) - Copy - Copy</v>
+      </c>
+      <c r="B48">
+        <v>28.24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>48</v>
-      </c>
-      <c r="B49" t="str">
-        <v>沈琪瀚_3200607038_电子信息1班_AI在语音识别行业调查报告(1).docx</v>
-      </c>
-      <c r="C49">
-        <v>68.44</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (72) - Copy - Copy</v>
+      </c>
+      <c r="B49">
+        <v>31.54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <v>王奇_3200607051_2020级一班_人工智能在自动驾驶行业中的应用.doc</v>
-      </c>
-      <c r="C50">
-        <v>42.3</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (73) - Copy - Copy</v>
+      </c>
+      <c r="B50">
+        <v>34.21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <v>王紫轩_3200604003.doc</v>
-      </c>
-      <c r="C51">
-        <v>60.25</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (74) - Copy - Copy</v>
+      </c>
+      <c r="B51">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (75) - Copy - Copy</v>
+      </c>
+      <c r="B52">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (76) - Copy - Copy</v>
+      </c>
+      <c r="B53">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (77) - Copy - Copy</v>
+      </c>
+      <c r="B54">
+        <v>36.45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (78) - Copy - Copy</v>
+      </c>
+      <c r="B55">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (79) - Copy - Copy</v>
+      </c>
+      <c r="B56">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (80) - Copy - Copy</v>
+      </c>
+      <c r="B57">
+        <v>35.62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (81) - Copy - Copy</v>
+      </c>
+      <c r="B58">
+        <v>35.27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (82) - Copy - Copy</v>
+      </c>
+      <c r="B59">
+        <v>29.42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (83) - Copy - Copy</v>
+      </c>
+      <c r="B60">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (84) - Copy - Copy</v>
+      </c>
+      <c r="B61">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (85) - Copy - Copy</v>
+      </c>
+      <c r="B62">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (86) - Copy - Copy</v>
+      </c>
+      <c r="B63">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (87) - Copy - Copy</v>
+      </c>
+      <c r="B64">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (88) - Copy - Copy</v>
+      </c>
+      <c r="B65">
+        <v>35.38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (89) - Copy - Copy</v>
+      </c>
+      <c r="B66">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (90) - Copy - Copy</v>
+      </c>
+      <c r="B67">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (91) - Copy - Copy</v>
+      </c>
+      <c r="B68">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (92) - Copy - Copy</v>
+      </c>
+      <c r="B69">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (93) - Copy - Copy</v>
+      </c>
+      <c r="B70">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (94) - Copy - Copy</v>
+      </c>
+      <c r="B71">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (95) - Copy - Copy</v>
+      </c>
+      <c r="B72">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (96) - Copy - Copy</v>
+      </c>
+      <c r="B73">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (97) - Copy - Copy</v>
+      </c>
+      <c r="B74">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (98) - Copy - Copy</v>
+      </c>
+      <c r="B75">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (99) - Copy - Copy</v>
+      </c>
+      <c r="B76">
+        <v>34.94</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (100) - Copy - Copy</v>
       </c>
       <c r="B2">
-        <v>36.41</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (101) - Copy - Copy</v>
       </c>
       <c r="B3">
-        <v>36.56</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (102) - Copy - Copy</v>
       </c>
       <c r="B4">
-        <v>35.71</v>
+        <v>33.13</v>
       </c>
     </row>
     <row r="5">
@@ -429,7 +429,7 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (104) - Copy - Copy</v>
       </c>
       <c r="B6">
-        <v>36.5</v>
+        <v>35.51</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (105) - Copy - Copy</v>
       </c>
       <c r="B7">
-        <v>36.72</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (106) - Copy - Copy</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="9">
@@ -453,212 +453,212 @@
         <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (107) - Copy - Copy</v>
       </c>
       <c r="B9">
-        <v>36.06</v>
+        <v>33.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (35) - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (58) - Copy - Copy</v>
       </c>
       <c r="B10">
-        <v>36.56</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (35)</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (59) - Copy - Copy</v>
       </c>
       <c r="B11">
-        <v>36.37</v>
+        <v>35.51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (36) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (60) - Copy - Copy</v>
       </c>
       <c r="B12">
-        <v>36.23</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (36) - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (61) - Copy - Copy</v>
       </c>
       <c r="B13">
-        <v>36.37</v>
+        <v>36.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (37) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (62) - Copy - Copy</v>
       </c>
       <c r="B14">
-        <v>36.37</v>
+        <v>36.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (38) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (63) - Copy - Copy</v>
       </c>
       <c r="B15">
-        <v>36.34</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (39) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (64) - Copy - Copy</v>
       </c>
       <c r="B16">
-        <v>22.92</v>
+        <v>36.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (40) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (65) - Copy - Copy</v>
       </c>
       <c r="B17">
-        <v>35.95</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (41) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (66) - Copy - Copy</v>
       </c>
       <c r="B18">
-        <v>36.56</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (42) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (67) - Copy - Copy</v>
       </c>
       <c r="B19">
-        <v>36.37</v>
+        <v>36.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (43) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (68) - Copy - Copy</v>
       </c>
       <c r="B20">
-        <v>36.56</v>
+        <v>36.45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (44) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (69) - Copy - Copy</v>
       </c>
       <c r="B21">
-        <v>36.12</v>
+        <v>36.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (45) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (70) - Copy - Copy</v>
       </c>
       <c r="B22">
-        <v>33.61</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (46) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (71) - Copy - Copy</v>
       </c>
       <c r="B23">
-        <v>36.34</v>
+        <v>46.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (47) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (72) - Copy - Copy</v>
       </c>
       <c r="B24">
-        <v>33.6</v>
+        <v>36.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (48) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (73) - Copy - Copy</v>
       </c>
       <c r="B25">
-        <v>36.37</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (49) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (74) - Copy - Copy</v>
       </c>
       <c r="B26">
-        <v>36.15</v>
+        <v>35.57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (50) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (75) - Copy - Copy</v>
       </c>
       <c r="B27">
-        <v>36.57</v>
+        <v>36.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (51) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (76) - Copy - Copy</v>
       </c>
       <c r="B28">
-        <v>33.5</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (52) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (77) - Copy - Copy</v>
       </c>
       <c r="B29">
-        <v>35.48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (53) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (78) - Copy - Copy</v>
       </c>
       <c r="B30">
-        <v>36.34</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (54) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (79) - Copy - Copy</v>
       </c>
       <c r="B31">
-        <v>36.92</v>
+        <v>36.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (55) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (80) - Copy - Copy</v>
       </c>
       <c r="B32">
-        <v>36.45</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (56) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (81) - Copy - Copy</v>
       </c>
       <c r="B33">
-        <v>35.02</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (57) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (82) - Copy - Copy</v>
       </c>
       <c r="B34">
-        <v>36.43</v>
+        <v>36.45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (58) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (83) - Copy - Copy</v>
       </c>
       <c r="B35">
         <v>36.45</v>
@@ -666,23 +666,23 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (59) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (84) - Copy - Copy</v>
       </c>
       <c r="B36">
-        <v>36.34</v>
+        <v>36.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (60) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (85) - Copy - Copy</v>
       </c>
       <c r="B37">
-        <v>29.84</v>
+        <v>36.46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (61) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (86) - Copy - Copy</v>
       </c>
       <c r="B38">
         <v>36.45</v>
@@ -690,311 +690,111 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (62) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (87) - Copy - Copy</v>
       </c>
       <c r="B39">
-        <v>35.1</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (63) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (88) - Copy - Copy</v>
       </c>
       <c r="B40">
-        <v>36.5</v>
+        <v>36.46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (64) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (89) - Copy - Copy</v>
       </c>
       <c r="B41">
-        <v>36.26</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (65) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (90) - Copy - Copy</v>
       </c>
       <c r="B42">
-        <v>36.34</v>
+        <v>35.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (66) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (91) - Copy - Copy</v>
       </c>
       <c r="B43">
-        <v>36.45</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (67) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (92) - Copy - Copy</v>
       </c>
       <c r="B44">
-        <v>36.45</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (68) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (93) - Copy - Copy</v>
       </c>
       <c r="B45">
-        <v>34.61</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (69) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (94) - Copy - Copy</v>
       </c>
       <c r="B46">
-        <v>36.9</v>
+        <v>36.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (70) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (95) - Copy - Copy</v>
       </c>
       <c r="B47">
-        <v>34.41</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (71) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (96) - Copy - Copy</v>
       </c>
       <c r="B48">
-        <v>28.24</v>
+        <v>36.46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (72) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (97) - Copy - Copy</v>
       </c>
       <c r="B49">
-        <v>31.54</v>
+        <v>35.62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (73) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (98) - Copy - Copy</v>
       </c>
       <c r="B50">
-        <v>34.21</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (74) - Copy - Copy</v>
+        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (99) - Copy - Copy</v>
       </c>
       <c r="B51">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (75) - Copy - Copy</v>
-      </c>
-      <c r="B52">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (76) - Copy - Copy</v>
-      </c>
-      <c r="B53">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (77) - Copy - Copy</v>
-      </c>
-      <c r="B54">
-        <v>36.45</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (78) - Copy - Copy</v>
-      </c>
-      <c r="B55">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (79) - Copy - Copy</v>
-      </c>
-      <c r="B56">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (80) - Copy - Copy</v>
-      </c>
-      <c r="B57">
-        <v>35.62</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (81) - Copy - Copy</v>
-      </c>
-      <c r="B58">
-        <v>35.27</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (82) - Copy - Copy</v>
-      </c>
-      <c r="B59">
-        <v>29.42</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (83) - Copy - Copy</v>
-      </c>
-      <c r="B60">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (84) - Copy - Copy</v>
-      </c>
-      <c r="B61">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (85) - Copy - Copy</v>
-      </c>
-      <c r="B62">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (86) - Copy - Copy</v>
-      </c>
-      <c r="B63">
-        <v>34.61</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (87) - Copy - Copy</v>
-      </c>
-      <c r="B64">
-        <v>36.37</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (88) - Copy - Copy</v>
-      </c>
-      <c r="B65">
-        <v>35.38</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (89) - Copy - Copy</v>
-      </c>
-      <c r="B66">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (90) - Copy - Copy</v>
-      </c>
-      <c r="B67">
-        <v>32.67</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (91) - Copy - Copy</v>
-      </c>
-      <c r="B68">
-        <v>33.7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (92) - Copy - Copy</v>
-      </c>
-      <c r="B69">
-        <v>28.68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (93) - Copy - Copy</v>
-      </c>
-      <c r="B70">
-        <v>36.37</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (94) - Copy - Copy</v>
-      </c>
-      <c r="B71">
-        <v>36.37</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (95) - Copy - Copy</v>
-      </c>
-      <c r="B72">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (96) - Copy - Copy</v>
-      </c>
-      <c r="B73">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (97) - Copy - Copy</v>
-      </c>
-      <c r="B74">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (98) - Copy - Copy</v>
-      </c>
-      <c r="B75">
-        <v>36.43</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>何宇辰_3200604002_工学1班_AI在智慧医疗行业调查报告 - Copy - Copy (99) - Copy - Copy</v>
-      </c>
-      <c r="B76">
         <v>34.94</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B51"/>
   </ignoredErrors>
 </worksheet>
 </file>